--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s23316\Documents\GitHub\NAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F50A2F-2339-4F91-8A9F-FC3B4DCF916D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E796827-6192-4A15-BA88-B392BECAF9F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="6" xr2:uid="{9E910DA2-E680-407D-A6F3-58CE6C70C853}"/>
   </bookViews>
@@ -1161,6 +1161,10 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1808,6 +1812,10 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2265,49 +2273,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>time in microseconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.44642534996360755"/>
-              <c:y val="0.9152968747773006"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2373,41 +2338,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>lowest value generated</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2444,6 +2374,10 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -14479,8 +14413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC2359E-8255-42C0-8F76-F4BE52789F3E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q61" sqref="Q61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
